--- a/schema_functions_MAPPED_script_V_7_1.xlsx
+++ b/schema_functions_MAPPED_script_V_7_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\HH-ETL-scripts-main\documentation\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\ETL_Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E1A26-E656-49D2-9007-A92B86A79071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4496726-3CED-4F53-89FE-0721B1487F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-384" yWindow="540" windowWidth="19320" windowHeight="11976" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTIONS" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="278">
   <si>
     <t>Description</t>
   </si>
@@ -4369,8 +4369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1048571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4823,6 +4823,9 @@
       <c r="C35" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
@@ -4833,6 +4836,9 @@
       </c>
       <c r="C36" s="28" t="s">
         <v>160</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/schema_functions_MAPPED_script_V_7_1.xlsx
+++ b/schema_functions_MAPPED_script_V_7_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\ETL_Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4496726-3CED-4F53-89FE-0721B1487F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8798D227-C0A7-4886-BE9C-C1569DC1B040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="278">
   <si>
     <t>Description</t>
   </si>
@@ -4369,8 +4369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1048571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5004,6 +5004,9 @@
       <c r="C49" s="17" t="s">
         <v>199</v>
       </c>
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
@@ -5025,6 +5028,9 @@
       </c>
       <c r="C51" s="17" t="s">
         <v>199</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/schema_functions_MAPPED_script_V_7_1.xlsx
+++ b/schema_functions_MAPPED_script_V_7_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\ETL_Framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\HH-ETL-scripts-main\documentation\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8798D227-C0A7-4886-BE9C-C1569DC1B040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EBC8B5-7106-4DAA-9304-6C41389EAD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4176" yWindow="72" windowWidth="17520" windowHeight="12504" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTIONS" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FUNCTIONS!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARAMETERS!$A$1:$B$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UNIQUE_PARAMETERS!$A$1:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARAMETERS!$A$1:$B$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UNIQUE_PARAMETERS!$A$1:$E$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="280">
   <si>
     <t>Description</t>
   </si>
@@ -2115,6 +2116,12 @@
   </si>
   <si>
     <t>GCFR_Register_Tfm_HistCol</t>
+  </si>
+  <si>
+    <t>['historization key'].notnull()</t>
+  </si>
+  <si>
+    <t>bkey_process_code_set_id</t>
   </si>
 </sst>
 </file>
@@ -2257,7 +2264,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2308,12 +2315,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFC6D9F1"/>
       </patternFill>
@@ -2327,6 +2328,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2DCDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC6D9F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2358,7 +2377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2379,10 +2398,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2401,7 +2416,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2409,18 +2423,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2687,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3153,35 +3174,35 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:10" s="28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="28">
         <v>4</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3192,7 +3213,7 @@
       <c r="B16" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D16" t="s">
@@ -3210,10 +3231,10 @@
       <c r="H16" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="12" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3224,7 +3245,7 @@
       <c r="B17" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>175</v>
       </c>
       <c r="D17" t="s">
@@ -3242,10 +3263,10 @@
       <c r="H17" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="12" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3256,7 +3277,7 @@
       <c r="B18" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>215</v>
       </c>
       <c r="D18" t="s">
@@ -3274,10 +3295,10 @@
       <c r="H18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="14" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3285,13 +3306,13 @@
       <c r="A19" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="24" t="s">
         <v>226</v>
       </c>
       <c r="F19" t="s">
@@ -3303,10 +3324,10 @@
       <c r="H19" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3314,13 +3335,13 @@
       <c r="A20" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="24" t="s">
         <v>271</v>
       </c>
       <c r="F20" t="s">
@@ -3332,10 +3353,10 @@
       <c r="H20" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="14" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3343,7 +3364,7 @@
       <c r="A21" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>237</v>
       </c>
       <c r="D21" t="s">
@@ -3358,7 +3379,7 @@
       <c r="H21" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3366,7 +3387,7 @@
       <c r="A22" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>240</v>
       </c>
       <c r="D22" t="s">
@@ -3381,7 +3402,7 @@
       <c r="H22" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="12" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3394,10 +3415,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3414,7 +3436,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3422,7 +3444,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3430,7 +3452,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3438,7 +3460,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -3446,7 +3468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3454,7 +3476,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -3462,7 +3484,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3470,7 +3492,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -3478,7 +3500,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -3486,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -3494,7 +3516,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -3502,7 +3524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -3510,7 +3532,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -3518,7 +3540,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3526,7 +3548,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -3534,7 +3556,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -3542,7 +3564,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3550,7 +3572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -3558,7 +3580,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -3566,7 +3588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -3574,7 +3596,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -3582,15 +3604,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -3598,7 +3620,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -3606,7 +3628,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -3614,7 +3636,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
@@ -3622,7 +3644,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -3630,7 +3652,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -3638,7 +3660,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
@@ -3646,7 +3668,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -3654,7 +3676,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -3662,7 +3684,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -3670,7 +3692,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3678,7 +3700,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" s="5" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
@@ -3686,7 +3708,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" s="5" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>51</v>
       </c>
@@ -3694,7 +3716,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" s="5" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>51</v>
       </c>
@@ -3702,7 +3724,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" s="5" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>51</v>
       </c>
@@ -3710,7 +3732,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3718,7 +3740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -3726,7 +3748,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -3734,7 +3756,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -3742,7 +3764,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3750,7 +3772,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -3758,7 +3780,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -3766,7 +3788,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -3774,7 +3796,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -3782,7 +3804,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -3790,7 +3812,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -3798,7 +3820,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -3806,7 +3828,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -3814,7 +3836,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -3822,7 +3844,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -3830,7 +3852,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -3838,7 +3860,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -3846,7 +3868,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>83</v>
       </c>
@@ -3854,7 +3876,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>83</v>
       </c>
@@ -3862,7 +3884,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>83</v>
       </c>
@@ -3870,7 +3892,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>83</v>
       </c>
@@ -3878,7 +3900,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>154</v>
       </c>
@@ -3886,7 +3908,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
@@ -3894,7 +3916,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>154</v>
       </c>
@@ -3902,7 +3924,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>154</v>
       </c>
@@ -3910,24 +3932,24 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+    <row r="65" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B65" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+    <row r="66" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B66" t="s">
@@ -3938,7 +3960,7 @@
       <c r="A67" t="s">
         <v>201</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="15" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3946,7 +3968,7 @@
       <c r="A68" t="s">
         <v>201</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="15" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3954,7 +3976,7 @@
       <c r="A69" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="18" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3962,7 +3984,7 @@
       <c r="A70" t="s">
         <v>201</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="15" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3970,7 +3992,7 @@
       <c r="A71" t="s">
         <v>201</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="15" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3978,7 +4000,7 @@
       <c r="A72" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3986,7 +4008,7 @@
       <c r="A73" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="15" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3994,7 +4016,7 @@
       <c r="A74" t="s">
         <v>201</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="18" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4002,7 +4024,7 @@
       <c r="A75" t="s">
         <v>201</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4010,7 +4032,7 @@
       <c r="A76" t="s">
         <v>201</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="18" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4018,7 +4040,7 @@
       <c r="A77" t="s">
         <v>201</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="15" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4026,7 +4048,7 @@
       <c r="A78" t="s">
         <v>201</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="19" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4034,7 +4056,7 @@
       <c r="A79" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="18" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4042,7 +4064,7 @@
       <c r="A80" t="s">
         <v>201</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="18" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4050,7 +4072,7 @@
       <c r="A81" t="s">
         <v>201</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="18" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4058,7 +4080,7 @@
       <c r="A82" t="s">
         <v>201</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="18" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4066,7 +4088,7 @@
       <c r="A83" t="s">
         <v>201</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="18" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4074,7 +4096,7 @@
       <c r="A84" t="s">
         <v>201</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="18" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4082,284 +4104,290 @@
       <c r="A85" t="s">
         <v>201</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="22" t="s">
+    <row r="86" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="22" t="s">
+    <row r="87" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="22" t="s">
+    <row r="88" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="22" t="s">
+    <row r="89" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>226</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="22" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>226</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="23" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>226</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="23" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>271</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="22" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>271</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="23" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>271</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="23" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>271</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="23" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>241</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="27" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>241</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="27" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>241</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>241</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="27" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>241</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="27" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>241</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="27" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>241</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="27" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>241</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="27" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>241</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="27" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>241</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="27" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="27" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>241</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>241</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="27" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>241</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="27" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>241</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="27" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>241</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="27" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>241</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>241</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>241</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>239</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="27" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>239</v>
       </c>
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>239</v>
       </c>
-      <c r="B118" s="25" t="s">
+      <c r="B118" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>239</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="22" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B63" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:B119" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EXEC_SRCI"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4367,19 +4395,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H1048571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4409,8 +4440,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
@@ -4420,7 +4451,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -4434,8 +4465,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B4" t="s">
@@ -4445,7 +4476,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>96</v>
       </c>
@@ -4456,7 +4487,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -4467,7 +4498,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
@@ -4478,8 +4509,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4499,8 +4530,8 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -4513,19 +4544,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" s="35" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B11" t="s">
@@ -4535,8 +4566,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>132</v>
       </c>
       <c r="B12" t="s">
@@ -4546,12 +4577,15 @@
         <v>128</v>
       </c>
       <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>133</v>
       </c>
       <c r="B13" t="s">
@@ -4561,8 +4595,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B14" t="s">
@@ -4572,8 +4606,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>99</v>
       </c>
       <c r="B15" t="s">
@@ -4586,8 +4620,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:8" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>137</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -4597,8 +4631,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>100</v>
       </c>
       <c r="B17" t="s">
@@ -4607,9 +4641,12 @@
       <c r="D17" t="s">
         <v>138</v>
       </c>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B18" t="s">
@@ -4618,9 +4655,12 @@
       <c r="D18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -4629,9 +4669,12 @@
       <c r="C19" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="E19" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -4640,9 +4683,12 @@
       <c r="D20" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="E20" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>97</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -4652,8 +4698,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>101</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -4662,9 +4708,12 @@
       <c r="C22" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E22" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B23" t="s">
@@ -4674,8 +4723,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B24" t="s">
@@ -4685,7 +4734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -4699,7 +4748,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>107</v>
       </c>
@@ -4713,7 +4762,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -4727,7 +4776,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -4741,7 +4790,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -4755,7 +4804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -4769,7 +4818,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>112</v>
       </c>
@@ -4780,7 +4829,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -4791,7 +4840,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -4802,58 +4851,61 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="24" t="s">
         <v>159</v>
       </c>
       <c r="E35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="25" t="s">
         <v>160</v>
       </c>
       <c r="E36" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="24"/>
       <c r="D37" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -4864,7 +4916,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>168</v>
       </c>
@@ -4875,7 +4927,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>169</v>
       </c>
@@ -4890,13 +4942,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="15" t="s">
         <v>199</v>
       </c>
       <c r="D41" s="2"/>
@@ -4908,21 +4960,24 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D42" t="s">
         <v>0</v>
       </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D43" t="s">
@@ -4931,10 +4986,10 @@
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="20" t="s">
         <v>221</v>
       </c>
       <c r="C44" t="s">
@@ -4942,10 +4997,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="20" t="s">
         <v>221</v>
       </c>
       <c r="C45" t="s">
@@ -4953,27 +5008,29 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="21" t="s">
         <v>126</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>199</v>
       </c>
       <c r="E47" t="s">
@@ -4984,24 +5041,27 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D48" t="s">
         <v>194</v>
       </c>
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="15" t="s">
         <v>199</v>
       </c>
       <c r="E49" t="s">
@@ -5009,24 +5069,27 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D50" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>199</v>
       </c>
       <c r="E51" t="s">
@@ -5034,95 +5097,95 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="18" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="18" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="18" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="18" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="18" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="18" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
+    <row r="59" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="22" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="26" t="s">
+    <row r="60" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
         <v>229</v>
       </c>
       <c r="B60" t="s">
@@ -5134,12 +5197,9 @@
       <c r="E60" t="s">
         <v>124</v>
       </c>
-      <c r="H60" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
+    </row>
+    <row r="61" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
         <v>230</v>
       </c>
       <c r="B61" t="s">
@@ -5151,12 +5211,15 @@
       <c r="E61" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30" t="s">
+      <c r="H61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="20" t="s">
         <v>264</v>
       </c>
       <c r="C62" t="s">
@@ -5169,55 +5232,55 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="30" t="s">
+    <row r="64" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="30" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="30" t="s">
+    <row r="65" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="30" t="s">
+    <row r="66" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="20" t="s">
         <v>265</v>
       </c>
       <c r="C66" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="21" t="s">
         <v>126</v>
       </c>
       <c r="C67" s="10"/>
@@ -5225,11 +5288,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="20" t="s">
         <v>264</v>
       </c>
       <c r="C68" t="s">
@@ -5242,135 +5305,135 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+    <row r="69" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="26" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="30" t="s">
+    <row r="70" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="26" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="30" t="s">
+    <row r="72" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="30" t="s">
+    <row r="73" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="30" t="s">
+    <row r="74" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="18" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="30" t="s">
+    <row r="75" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="27" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="32" t="s">
+    <row r="78" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="30" t="s">
+    <row r="79" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="26" t="s">
+    <row r="80" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="28" t="s">
         <v>233</v>
       </c>
       <c r="C80" t="s">
@@ -5379,12 +5442,15 @@
       <c r="E80" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="26" t="s">
+      <c r="H80" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="28" t="s">
         <v>233</v>
       </c>
       <c r="C81" t="s">
@@ -5393,10 +5459,47 @@
       <c r="E81" t="s">
         <v>124</v>
       </c>
+      <c r="H81" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>279</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="1048571" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:E37" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:E82" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SRCI_Code_Set_Id"/>
+        <filter val="SRCI_Collect_Stats"/>
+        <filter val="SRCI_Ctl_Id"/>
+        <filter val="SRCI_Description"/>
+        <filter val="SRCI_Domain_Id"/>
+        <filter val="SRCI_File_Qualifier_Reset_Flag"/>
+        <filter val="SRCI_In_DB_Name"/>
+        <filter val="SRCI_In_Object_Name"/>
+        <filter val="SRCI_Key_Set_ID"/>
+        <filter val="SRCI_Out_DB_Name"/>
+        <filter val="SRCI_Out_Object_Name"/>
+        <filter val="SRCI_Process_Name"/>
+        <filter val="SRCI_Process_Type"/>
+        <filter val="SRCI_Stream_Key"/>
+        <filter val="SRCI_Target_TableDatabaseName"/>
+        <filter val="SRCI_Truncate_Target"/>
+        <filter val="SRCI_Verification_Flag"/>
+        <filter val="Temp_DatabaseName"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5429,144 +5532,144 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>10</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>11</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>12</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>13</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>14</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>16</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>17</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>18</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>19</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>20</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <v>22</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>23</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <v>24</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>31</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>32</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>192</v>
       </c>
     </row>

--- a/schema_functions_MAPPED_script_V_7_1.xlsx
+++ b/schema_functions_MAPPED_script_V_7_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\HH-ETL-scripts-main\documentation\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EBC8B5-7106-4DAA-9304-6C41389EAD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9143696-C417-4522-B274-23BF4386B11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="72" windowWidth="17520" windowHeight="12504" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="552" yWindow="504" windowWidth="22104" windowHeight="11628" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTIONS" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FUNCTIONS!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARAMETERS!$A$1:$B$119</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UNIQUE_PARAMETERS!$A$1:$E$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UNIQUE_PARAMETERS!$A$1:$E$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="281">
   <si>
     <t>Description</t>
   </si>
@@ -2122,6 +2121,9 @@
   </si>
   <si>
     <t>bkey_process_code_set_id</t>
+  </si>
+  <si>
+    <t>Map_View_DB_Name</t>
   </si>
 </sst>
 </file>
@@ -2708,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3419,7 +3421,7 @@
   <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3900,7 +3902,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>154</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
@@ -3916,7 +3918,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>154</v>
       </c>
@@ -3924,12 +3926,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -3956,7 +3958,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -3964,7 +3966,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -3972,7 +3974,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>201</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -3988,7 +3990,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>201</v>
       </c>
@@ -3996,7 +3998,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>201</v>
       </c>
@@ -4004,7 +4006,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>201</v>
       </c>
@@ -4012,7 +4014,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -4020,7 +4022,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>201</v>
       </c>
@@ -4028,7 +4030,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>201</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>201</v>
       </c>
@@ -4052,7 +4054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>201</v>
       </c>
@@ -4068,7 +4070,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>201</v>
       </c>
@@ -4076,7 +4078,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>201</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>201</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>201</v>
       </c>
@@ -4100,7 +4102,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>201</v>
       </c>
@@ -4384,7 +4386,7 @@
   <autoFilter ref="A1:B119" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="EXEC_SRCI"/>
+        <filter val="GCFR_Register_Bmap_Code_Set"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4395,11 +4397,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H1048571"/>
+  <dimension ref="A1:H1048572"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4440,7 +4441,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>91</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>90</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>96</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>93</v>
       </c>
@@ -4530,7 +4531,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>0</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="35" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>130</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>105</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>132</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>133</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>104</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>99</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>137</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>100</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>140</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>141</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>97</v>
       </c>
@@ -4698,7 +4699,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>101</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>98</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>103</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>107</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -4790,7 +4791,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>112</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>161</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>155</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>156</v>
       </c>
@@ -4890,7 +4891,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>157</v>
       </c>
@@ -4905,556 +4906,554 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>161</v>
-      </c>
-      <c r="B38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>168</v>
       </c>
       <c r="B39" t="s">
         <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
         <v>158</v>
       </c>
       <c r="C40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
         <v>171</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
-        <v>196</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
-        <v>209</v>
-      </c>
       <c r="B44" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" t="s">
-        <v>219</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>221</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="10"/>
+        <v>197</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B48" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="E47" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" t="s">
-        <v>194</v>
       </c>
       <c r="E48" t="s">
         <v>124</v>
       </c>
+      <c r="F48" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>200</v>
+      <c r="A49" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>199</v>
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>194</v>
       </c>
       <c r="E49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>202</v>
+      <c r="A50" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" t="s">
-        <v>202</v>
+        <v>221</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="E50" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>211</v>
+    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>202</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>199</v>
+        <v>126</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
       </c>
       <c r="E51" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>205</v>
+      <c r="A52" s="15" t="s">
+        <v>211</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>205</v>
+        <v>221</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D58" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="22" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
+      <c r="B60" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
         <v>229</v>
-      </c>
-      <c r="B60" t="s">
-        <v>233</v>
-      </c>
-      <c r="C60" t="s">
-        <v>231</v>
-      </c>
-      <c r="E60" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
-        <v>230</v>
       </c>
       <c r="B61" t="s">
         <v>233</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s">
         <v>124</v>
       </c>
-      <c r="H61" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>264</v>
+    </row>
+    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" t="s">
+        <v>233</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="E62" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="H62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
+    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B64" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27" t="s">
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B65" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C65" s="30" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27" t="s">
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
         <v>245</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
-        <v>246</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C67" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B68" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10" t="s">
+      <c r="C68" s="10"/>
+      <c r="D68" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27" t="s">
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B69" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>267</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>124</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27" t="s">
+    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B70" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D70" s="26" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B71" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B72" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D72" s="26" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B73" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
+    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="27" t="s">
         <v>253</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="27" t="s">
-        <v>254</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>126</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B75" s="28" t="s">
         <v>126</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="27" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="27" t="s">
-        <v>257</v>
       </c>
       <c r="B77" s="28" t="s">
         <v>126</v>
       </c>
       <c r="D77" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="27" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="29" t="s">
+      <c r="B78" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B79" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C79" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D79" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="27" t="s">
+    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B80" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D80" s="27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="23" t="s">
+    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="23" t="s">
         <v>272</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C80" t="s">
-        <v>274</v>
-      </c>
-      <c r="E80" t="s">
-        <v>124</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="23" t="s">
-        <v>273</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>233</v>
       </c>
       <c r="C81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E81" t="s">
         <v>124</v>
@@ -5463,43 +5462,37 @@
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" t="s">
+        <v>275</v>
+      </c>
+      <c r="E82" t="s">
+        <v>124</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B83" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="1048571" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="1048572" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:E82" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="SRCI_Code_Set_Id"/>
-        <filter val="SRCI_Collect_Stats"/>
-        <filter val="SRCI_Ctl_Id"/>
-        <filter val="SRCI_Description"/>
-        <filter val="SRCI_Domain_Id"/>
-        <filter val="SRCI_File_Qualifier_Reset_Flag"/>
-        <filter val="SRCI_In_DB_Name"/>
-        <filter val="SRCI_In_Object_Name"/>
-        <filter val="SRCI_Key_Set_ID"/>
-        <filter val="SRCI_Out_DB_Name"/>
-        <filter val="SRCI_Out_Object_Name"/>
-        <filter val="SRCI_Process_Name"/>
-        <filter val="SRCI_Process_Type"/>
-        <filter val="SRCI_Stream_Key"/>
-        <filter val="SRCI_Target_TableDatabaseName"/>
-        <filter val="SRCI_Truncate_Target"/>
-        <filter val="SRCI_Verification_Flag"/>
-        <filter val="Temp_DatabaseName"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E83" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/schema_functions_MAPPED_script_V_7_1.xlsx
+++ b/schema_functions_MAPPED_script_V_7_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\HH-ETL-scripts-main\documentation\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9143696-C417-4522-B274-23BF4386B11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F6AEFB-DC06-4908-8EEA-40F51133D3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="552" yWindow="504" windowWidth="22104" windowHeight="11628" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1992" yWindow="2124" windowWidth="20532" windowHeight="10020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTIONS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FUNCTIONS!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARAMETERS!$A$1:$B$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARAMETERS!$A$1:$B$120</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UNIQUE_PARAMETERS!$A$1:$E$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="281">
   <si>
     <t>Description</t>
   </si>
@@ -2266,7 +2266,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2351,6 +2351,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor rgb="FFF2DCDB"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2379,7 +2391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2444,6 +2456,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2710,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3417,11 +3431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3438,7 +3451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3446,7 +3459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3454,7 +3467,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3462,7 +3475,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -3470,7 +3483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3478,7 +3491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -3486,7 +3499,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3494,7 +3507,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -3502,7 +3515,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -3510,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -3518,7 +3531,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -3526,7 +3539,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -3534,7 +3547,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -3542,7 +3555,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3550,7 +3563,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -3558,7 +3571,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -3566,7 +3579,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -3574,7 +3587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -3582,7 +3595,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -3590,7 +3603,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -3598,7 +3611,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -3606,7 +3619,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -3614,7 +3627,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -3622,7 +3635,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -3630,7 +3643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -3638,7 +3651,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
@@ -3646,7 +3659,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -3654,7 +3667,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -3662,7 +3675,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
@@ -3670,7 +3683,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -3678,236 +3691,236 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" s="36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="5" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="5" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="5" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="5" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
       <c r="B40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
       <c r="B44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>66</v>
       </c>
       <c r="B46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>71</v>
       </c>
       <c r="B49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>76</v>
       </c>
       <c r="B51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>81</v>
       </c>
       <c r="B55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3915,7 +3928,7 @@
         <v>154</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3923,7 +3936,7 @@
         <v>154</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3931,476 +3944,479 @@
         <v>154</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>201</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>201</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>201</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>201</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>201</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>201</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>201</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>201</v>
       </c>
-      <c r="B76" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>201</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>201</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>201</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>201</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>201</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>201</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>201</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>201</v>
       </c>
       <c r="B85" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B89" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>226</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>226</v>
       </c>
-      <c r="B91" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>226</v>
       </c>
       <c r="B92" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" s="23" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>271</v>
-      </c>
-      <c r="B93" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>271</v>
       </c>
-      <c r="B94" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>271</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>271</v>
       </c>
       <c r="B96" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>271</v>
+      </c>
+      <c r="B97" s="23" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>241</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>241</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>241</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>241</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>241</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>241</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>241</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>241</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>241</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>241</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>241</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>241</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>241</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>241</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>241</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>241</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>241</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>241</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>241</v>
       </c>
       <c r="B115" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" s="27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>239</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>239</v>
       </c>
-      <c r="B117" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>239</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>239</v>
       </c>
       <c r="B119" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" s="22" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B119" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="GCFR_Register_Bmap_Code_Set"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B120" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H1048572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4441,7 +4457,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>91</v>
       </c>
@@ -4452,7 +4468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -4466,7 +4482,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>90</v>
       </c>
@@ -4477,7 +4493,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>96</v>
       </c>
@@ -4488,7 +4504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -4499,7 +4515,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
@@ -4510,7 +4526,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>93</v>
       </c>
@@ -4531,7 +4547,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>0</v>
       </c>
@@ -4545,7 +4561,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="35" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>130</v>
       </c>
@@ -4556,7 +4572,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>105</v>
       </c>
@@ -4567,7 +4583,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>132</v>
       </c>
@@ -4585,7 +4601,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>133</v>
       </c>
@@ -4596,7 +4612,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>104</v>
       </c>
@@ -4607,7 +4623,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>99</v>
       </c>
@@ -4621,7 +4637,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>137</v>
       </c>
@@ -4632,7 +4648,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>100</v>
       </c>
@@ -4646,7 +4662,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>102</v>
       </c>
@@ -4660,7 +4676,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>140</v>
       </c>
@@ -4674,7 +4690,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>141</v>
       </c>
@@ -4688,7 +4704,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>97</v>
       </c>
@@ -4699,7 +4715,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>101</v>
       </c>
@@ -4713,7 +4729,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>98</v>
       </c>
@@ -4724,7 +4740,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>103</v>
       </c>
@@ -4735,7 +4751,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -4749,7 +4765,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="10" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>107</v>
       </c>
@@ -4763,7 +4779,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -4791,7 +4807,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -4815,11 +4831,8 @@
       <c r="D30" t="s">
         <v>111</v>
       </c>
-      <c r="E30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>112</v>
       </c>
@@ -4830,7 +4843,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -4841,7 +4854,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -4852,7 +4865,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>161</v>
       </c>
@@ -4863,7 +4876,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>155</v>
       </c>
@@ -4877,7 +4890,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>156</v>
       </c>
@@ -4891,7 +4904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>157</v>
       </c>
@@ -4906,7 +4919,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>280</v>
       </c>
@@ -4921,7 +4934,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -4932,7 +4945,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>168</v>
       </c>
@@ -4943,7 +4956,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>169</v>
       </c>
@@ -4957,7 +4970,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>208</v>
       </c>
@@ -4975,7 +4988,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>212</v>
       </c>
@@ -4989,7 +5002,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>196</v>
       </c>
@@ -5001,7 +5014,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>209</v>
       </c>
@@ -5012,7 +5025,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>197</v>
       </c>
@@ -5023,7 +5036,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>198</v>
       </c>
@@ -5039,7 +5052,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>210</v>
       </c>
@@ -5056,7 +5069,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>194</v>
       </c>
@@ -5070,7 +5083,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>200</v>
       </c>
@@ -5084,7 +5097,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>202</v>
       </c>
@@ -5098,7 +5111,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>211</v>
       </c>
@@ -5112,7 +5125,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>205</v>
       </c>
@@ -5123,7 +5136,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>206</v>
       </c>
@@ -5134,7 +5147,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>207</v>
       </c>
@@ -5145,7 +5158,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>203</v>
       </c>
@@ -5156,7 +5169,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>220</v>
       </c>
@@ -5167,7 +5180,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>195</v>
       </c>
@@ -5178,7 +5191,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>204</v>
       </c>
@@ -5189,7 +5202,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>228</v>
       </c>
@@ -5200,7 +5213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
         <v>229</v>
       </c>
@@ -5214,7 +5227,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
         <v>230</v>
       </c>
@@ -5231,7 +5244,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
         <v>242</v>
       </c>
@@ -5248,7 +5261,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
         <v>243</v>
       </c>
@@ -5259,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
         <v>244</v>
       </c>
@@ -5270,7 +5283,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
         <v>245</v>
       </c>
@@ -5281,7 +5294,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
         <v>246</v>
       </c>
@@ -5292,7 +5305,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
         <v>247</v>
       </c>
@@ -5304,7 +5317,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
         <v>248</v>
       </c>
@@ -5321,7 +5334,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
         <v>249</v>
       </c>
@@ -5332,7 +5345,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
         <v>250</v>
       </c>
@@ -5343,7 +5356,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
         <v>251</v>
       </c>
@@ -5354,7 +5367,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
         <v>252</v>
       </c>
@@ -5365,7 +5378,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
         <v>253</v>
       </c>
@@ -5376,7 +5389,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
         <v>254</v>
       </c>
@@ -5387,7 +5400,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
         <v>255</v>
       </c>
@@ -5398,7 +5411,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
         <v>256</v>
       </c>
@@ -5409,7 +5422,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
         <v>257</v>
       </c>
@@ -5420,7 +5433,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="29" t="s">
         <v>258</v>
       </c>
@@ -5434,7 +5447,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27" t="s">
         <v>259</v>
       </c>
@@ -5445,7 +5458,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
         <v>272</v>
       </c>
@@ -5462,7 +5475,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>273</v>
       </c>
@@ -5479,7 +5492,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>279</v>
       </c>
@@ -5492,7 +5505,14 @@
     </row>
     <row r="1048572" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:E83" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:E83" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="BIGINT_Flag"/>
+        <filter val="OMessage"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
